--- a/biology/Médecine/Max_Simeoni/Max_Simeoni.xlsx
+++ b/biology/Médecine/Max_Simeoni/Max_Simeoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Max Simeoni, né le 28 août 1929 à Lozzi (Corse, actuelle Haute-Corse) et mort le 9 septembre 2023 à Bastia (Haute-Corse)[1], est un médecin et homme politique français, fondateur de l'Union du peuple corse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max Simeoni, né le 28 août 1929 à Lozzi (Corse, actuelle Haute-Corse) et mort le 9 septembre 2023 à Bastia (Haute-Corse), est un médecin et homme politique français, fondateur de l'Union du peuple corse.
 </t>
         </is>
       </c>
@@ -511,11 +523,48 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Max Simeoni siège au Parlement européen de 1989 à 1994, élu sur la liste des Verts menée par Antoine Waechter. Ses assistants parlementaires étaient François Alfonsi, avec qui il fonde plus tard le Partitu di a Nazione Corsa, le Breton Christian Guyonvarc'h (br) et Marie-Antoinette Maupertuis. Il prend ensuite la tête de la première liste de la Fédération régions et peuples solidaires au scrutin européen de 1994. Cette liste n'obtient aucun élu. Il tente également, en vain, de se présenter à l'élection présidentielle française de 1995[2].
-Famille
-Fils de Ferdinand Simeoni, maire de Lozzi, Max Simeoni est le frère d'Edmond Simeoni et de Roland Simeoni, et l'oncle de Gilles Simeoni, fils d'Edmond Simeoni.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max Simeoni siège au Parlement européen de 1989 à 1994, élu sur la liste des Verts menée par Antoine Waechter. Ses assistants parlementaires étaient François Alfonsi, avec qui il fonde plus tard le Partitu di a Nazione Corsa, le Breton Christian Guyonvarc'h (br) et Marie-Antoinette Maupertuis. Il prend ensuite la tête de la première liste de la Fédération régions et peuples solidaires au scrutin européen de 1994. Cette liste n'obtient aucun élu. Il tente également, en vain, de se présenter à l'élection présidentielle française de 1995.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Max_Simeoni</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Max_Simeoni</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Ferdinand Simeoni, maire de Lozzi, Max Simeoni est le frère d'Edmond Simeoni et de Roland Simeoni, et l'oncle de Gilles Simeoni, fils d'Edmond Simeoni.
 </t>
         </is>
       </c>
